--- a/Tools_&_Information/delaytime.xlsx
+++ b/Tools_&_Information/delaytime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3D\Resin\Settings and Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/me/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2989A9EB-7896-4A1A-A58B-6C1E35303BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4392617-D309-2240-84DB-911F5BAD7A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="15750" xr2:uid="{4788B1E8-1CE1-4E5D-8871-BEE54F9CFA30}"/>
+    <workbookView xWindow="8320" yWindow="3260" windowWidth="16980" windowHeight="10680" xr2:uid="{4788B1E8-1CE1-4E5D-8871-BEE54F9CFA30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,33 +433,33 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2">
         <f>(60/B1)*B3</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,53 +470,53 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <f>(60/B2)*5</f>
-        <v>2</v>
+        <f>(60/B2)*B3</f>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2">
         <f>D1+D2</f>
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2">
         <f>D5+B4</f>
-        <v>13</v>
+        <v>8.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
         <f>B5+D3</f>
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>

--- a/Tools_&_Information/delaytime.xlsx
+++ b/Tools_&_Information/delaytime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/me/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4392617-D309-2240-84DB-911F5BAD7A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8114A0-73B3-9047-B505-54570C77E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="3260" windowWidth="16980" windowHeight="10680" xr2:uid="{4788B1E8-1CE1-4E5D-8871-BEE54F9CFA30}"/>
+    <workbookView xWindow="16000" yWindow="3960" windowWidth="16980" windowHeight="10680" xr2:uid="{4788B1E8-1CE1-4E5D-8871-BEE54F9CFA30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -113,7 +116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,90 +439,90 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>50</v>
+      <c r="B1" s="4">
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <f>(60/B1)*B3</f>
-        <v>4.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>150</v>
+      <c r="B2" s="4">
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>(60/B2)*B3</f>
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>4</v>
+      <c r="B3" s="4">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>D1+D2</f>
-        <v>6.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
+      <c r="B4" s="4">
+        <v>2.5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f>D5+B4</f>
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f>B5+D3</f>
-        <v>8.4</v>
+        <v>11.1</v>
       </c>
     </row>
   </sheetData>
